--- a/biology/Médecine/Jerzy_Vetulani/Jerzy_Vetulani.xlsx
+++ b/biology/Médecine/Jerzy_Vetulani/Jerzy_Vetulani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jerzy Adam Gracjan Vetulani  (né le 21 janvier 1936 à Cracovie et mort le 6 avril 2017 dans la même ville[1] est un pharmacologue, biochimiste et neuroscientifique polonais, un professeur de sciences naturelles.
-Il est un membre de l'Académie polonaise des sciences et de l'Académie polonaise des arts et sciences[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jerzy Adam Gracjan Vetulani  (né le 21 janvier 1936 à Cracovie et mort le 6 avril 2017 dans la même ville est un pharmacologue, biochimiste et neuroscientifique polonais, un professeur de sciences naturelles.
+Il est un membre de l'Académie polonaise des sciences et de l'Académie polonaise des arts et sciences.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père Adam Vetulani était un historien du droit et sa mère Irène Latinik était une biologiste.
-Vetulani a étudié la biologie et de la chimie à l'université Jagellonne[3]. Il est un docteur honoris causa de l'université de médecine de Silésie et de l'université de médecine de Łódź. Il a été décoré de la Croix de Chevalier de l'Ordre Polonia Restituta en 2004[2].
+Vetulani a étudié la biologie et de la chimie à l'université Jagellonne. Il est un docteur honoris causa de l'université de médecine de Silésie et de l'université de médecine de Łódź. Il a été décoré de la Croix de Chevalier de l'Ordre Polonia Restituta en 2004.
 Il a écrit plusieurs livres de vulgarisation scientifique et il a publié des articles dans des magazines populaires. Il parle souvent à des conférences scientifiques. Il est souvent invité à la radio et à la télévision.
 </t>
         </is>
